--- a/biology/Mycologie/Lepraria/Lepraria.xlsx
+++ b/biology/Mycologie/Lepraria/Lepraria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lepraria est un genre de Lichen.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (2 octobre 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (2 octobre 2013) :
 Lepraria achariana
 Lepraria adhaerens
 Lepraria alpina
@@ -582,7 +596,7 @@
 Lepraria xerophila
 Lepraria yunnaniana
 Lepraria zeorinica
-Selon Index Fungorum                                      (2 octobre 2013)[2] :
+Selon Index Fungorum                                      (2 octobre 2013) :
 Lepraria achariana Flakus &amp; Kukwa 2007
 Lepraria adhaerens K. Knudsen, Elix &amp; Lendemer 2007
 Lepraria aeruginosa (F.H. Wigg.) Sm. 1810
@@ -720,7 +734,7 @@
 Lepraria xerophila Tønsberg 2004
 Lepraria yunnaniana (Hue) Zahlbr. 1930
 Lepraria zeorinica (L. Saag) Kukwa 2009
-Selon NCBI  (2 octobre 2013)[3] :
+Selon NCBI  (2 octobre 2013) :
 Lepraria atlantica
 Lepraria atrotomentosa
 Lepraria bergensis
